--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/TDOMCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/TDOMCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>TDOMCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7575.544839736688</v>
       </c>
       <c r="C2" t="n">
-        <v>768.7533097509013</v>
+        <v>6762.373288364237</v>
       </c>
       <c r="D2" t="n">
-        <v>719.7848940810924</v>
-      </c>
-      <c r="E2" t="n">
-        <v>817.7217254207102</v>
+        <v>8388.71639110914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7692.176177863539</v>
       </c>
       <c r="C3" t="n">
-        <v>808.6195043266981</v>
+        <v>6246.102556631822</v>
       </c>
       <c r="D3" t="n">
-        <v>745.9715391678275</v>
-      </c>
-      <c r="E3" t="n">
-        <v>871.2674694855688</v>
+        <v>9138.249799095256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7653.720609717514</v>
       </c>
       <c r="C4" t="n">
-        <v>808.1239601939149</v>
+        <v>5701.617367742632</v>
       </c>
       <c r="D4" t="n">
-        <v>736.7772169600086</v>
-      </c>
-      <c r="E4" t="n">
-        <v>879.4707034278211</v>
+        <v>9605.823851692394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7772.69208715024</v>
       </c>
       <c r="C5" t="n">
-        <v>800.0654003357466</v>
+        <v>5401.399821467689</v>
       </c>
       <c r="D5" t="n">
-        <v>722.7339249542974</v>
-      </c>
-      <c r="E5" t="n">
-        <v>877.3968757171958</v>
+        <v>10143.984352832791</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7838.6905003305665</v>
       </c>
       <c r="C6" t="n">
-        <v>752.3356322614403</v>
+        <v>5106.68852296155</v>
       </c>
       <c r="D6" t="n">
-        <v>670.7303596619576</v>
-      </c>
-      <c r="E6" t="n">
-        <v>833.9409048609231</v>
+        <v>10570.692477699582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7974.256048849801</v>
       </c>
       <c r="C7" t="n">
-        <v>796.7990098444883</v>
+        <v>4922.487724940071</v>
       </c>
       <c r="D7" t="n">
-        <v>712.0761494696275</v>
-      </c>
-      <c r="E7" t="n">
-        <v>881.5218702193491</v>
+        <v>11026.024372759532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7941.518807185864</v>
       </c>
       <c r="C8" t="n">
-        <v>800.3201239106004</v>
+        <v>4600.057964998391</v>
       </c>
       <c r="D8" t="n">
-        <v>713.2924673980802</v>
-      </c>
-      <c r="E8" t="n">
-        <v>887.3477804231205</v>
+        <v>11282.979649373336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8062.217278091152</v>
       </c>
       <c r="C9" t="n">
-        <v>795.7710051735068</v>
+        <v>4454.140019228556</v>
       </c>
       <c r="D9" t="n">
-        <v>707.0241704883481</v>
-      </c>
-      <c r="E9" t="n">
-        <v>884.5178398586654</v>
+        <v>11670.294536953748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8128.737261081039</v>
       </c>
       <c r="C10" t="n">
-        <v>751.1075116917651</v>
+        <v>4272.402062926252</v>
       </c>
       <c r="D10" t="n">
-        <v>661.0703662893661</v>
-      </c>
-      <c r="E10" t="n">
-        <v>841.1446570941641</v>
+        <v>11985.072459235826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8264.46032905276</v>
       </c>
       <c r="C11" t="n">
-        <v>798.2499596887739</v>
+        <v>4174.901317301185</v>
       </c>
       <c r="D11" t="n">
-        <v>707.240116855058</v>
-      </c>
-      <c r="E11" t="n">
-        <v>889.2598025224897</v>
+        <v>12354.019340804334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8231.770659885267</v>
       </c>
       <c r="C12" t="n">
-        <v>804.1118355054363</v>
+        <v>3921.586622687097</v>
       </c>
       <c r="D12" t="n">
-        <v>712.3663866418624</v>
-      </c>
-      <c r="E12" t="n">
-        <v>895.8572843690101</v>
+        <v>12541.954697083438</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8352.483498174284</v>
       </c>
       <c r="C13" t="n">
-        <v>801.6078909243809</v>
+        <v>3832.4296783189407</v>
       </c>
       <c r="D13" t="n">
-        <v>709.3048339104855</v>
-      </c>
-      <c r="E13" t="n">
-        <v>893.9109479382762</v>
+        <v>12872.537318029626</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8419.007820261979</v>
       </c>
       <c r="C14" t="n">
-        <v>758.7313103258248</v>
+        <v>3698.405250645764</v>
       </c>
       <c r="D14" t="n">
-        <v>666.0048380257299</v>
-      </c>
-      <c r="E14" t="n">
-        <v>851.4577826259197</v>
+        <v>13139.610389878193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8554.732198685913</v>
       </c>
       <c r="C15" t="n">
-        <v>807.4350227475124</v>
+        <v>3641.760459917164</v>
       </c>
       <c r="D15" t="n">
-        <v>714.3866165118702</v>
-      </c>
-      <c r="E15" t="n">
-        <v>900.4834289831547</v>
+        <v>13467.703937454662</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8522.042925288482</v>
       </c>
       <c r="C16" t="n">
-        <v>814.6610090514315</v>
+        <v>3423.9556199593676</v>
       </c>
       <c r="D16" t="n">
-        <v>721.3675895684868</v>
-      </c>
-      <c r="E16" t="n">
-        <v>907.9544285343762</v>
+        <v>13620.130230617597</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8642.75588310413</v>
       </c>
       <c r="C17" t="n">
-        <v>813.348917299423</v>
+        <v>3366.0431664326247</v>
       </c>
       <c r="D17" t="n">
-        <v>719.8688895210853</v>
-      </c>
-      <c r="E17" t="n">
-        <v>906.8289450777606</v>
+        <v>13919.468599775635</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8709.2802412901</v>
       </c>
       <c r="C18" t="n">
-        <v>771.5136842891872</v>
+        <v>3259.7940240096245</v>
       </c>
       <c r="D18" t="n">
-        <v>677.8914520517561</v>
-      </c>
-      <c r="E18" t="n">
-        <v>865.1359165266182</v>
+        <v>14158.766458570577</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8845.004630616084</v>
       </c>
       <c r="C19" t="n">
-        <v>821.1272446159785</v>
+        <v>3228.056796127424</v>
       </c>
       <c r="D19" t="n">
-        <v>727.3966002053578</v>
-      </c>
-      <c r="E19" t="n">
-        <v>914.8578890265992</v>
+        <v>14461.952465104743</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8812.315360511184</v>
       </c>
       <c r="C20" t="n">
-        <v>829.1481847083412</v>
+        <v>3032.7560416780602</v>
       </c>
       <c r="D20" t="n">
-        <v>735.3348639106721</v>
-      </c>
-      <c r="E20" t="n">
-        <v>922.9615055060103</v>
+        <v>14591.874679344308</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8933.02831932121</v>
       </c>
       <c r="C21" t="n">
-        <v>828.5306612706804</v>
+        <v>2995.309155794705</v>
       </c>
       <c r="D21" t="n">
-        <v>734.6542751977757</v>
-      </c>
-      <c r="E21" t="n">
-        <v>922.4070473435851</v>
+        <v>14870.747482847717</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8999.552677807493</v>
       </c>
       <c r="C22" t="n">
-        <v>787.3022876154274</v>
+        <v>2907.7785675793043</v>
       </c>
       <c r="D22" t="n">
-        <v>693.3777866765782</v>
-      </c>
-      <c r="E22" t="n">
-        <v>881.2267885542766</v>
+        <v>15091.326788035682</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9135.277067224175</v>
       </c>
       <c r="C23" t="n">
-        <v>837.4460740828625</v>
+        <v>2893.2489709060787</v>
       </c>
       <c r="D23" t="n">
-        <v>743.4848593452023</v>
-      </c>
-      <c r="E23" t="n">
-        <v>931.4072888205228</v>
+        <v>15377.30516354227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9102.587797146665</v>
       </c>
       <c r="C24" t="n">
-        <v>845.9302842194513</v>
+        <v>2713.8384907162504</v>
       </c>
       <c r="D24" t="n">
-        <v>751.9410522068158</v>
-      </c>
-      <c r="E24" t="n">
-        <v>939.9195162320868</v>
+        <v>15491.33710357708</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9223.300755964965</v>
       </c>
       <c r="C25" t="n">
-        <v>845.7175298367767</v>
+        <v>2691.124958758532</v>
       </c>
       <c r="D25" t="n">
-        <v>751.7069153513536</v>
-      </c>
-      <c r="E25" t="n">
-        <v>939.7281443221999</v>
+        <v>15755.476553171397</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9289.825114453746</v>
       </c>
       <c r="C26" t="n">
-        <v>804.8428116572369</v>
+        <v>2617.3050814523463</v>
       </c>
       <c r="D26" t="n">
-        <v>710.8158772900084</v>
-      </c>
-      <c r="E26" t="n">
-        <v>898.8697460244654</v>
+        <v>15962.345147455146</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9425.549503871183</v>
       </c>
       <c r="C27" t="n">
-        <v>855.2955945609388</v>
+        <v>2615.5769241906396</v>
       </c>
       <c r="D27" t="n">
-        <v>761.2562036740001</v>
-      </c>
-      <c r="E27" t="n">
-        <v>949.3349854478774</v>
+        <v>16235.522083551727</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9392.860233793903</v>
       </c>
       <c r="C28" t="n">
-        <v>864.0497815653625</v>
+        <v>2448.1550938187834</v>
       </c>
       <c r="D28" t="n">
-        <v>770.0008826128485</v>
-      </c>
-      <c r="E28" t="n">
-        <v>958.0986805178766</v>
+        <v>16337.565373769023</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9513.57319261227</v>
       </c>
       <c r="C29" t="n">
-        <v>864.0729118098586</v>
+        <v>2436.700124201839</v>
       </c>
       <c r="D29" t="n">
-        <v>770.0167551470959</v>
-      </c>
-      <c r="E29" t="n">
-        <v>958.1290684726214</v>
+        <v>16590.446261022702</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9580.097551101071</v>
       </c>
       <c r="C30" t="n">
-        <v>823.4042911296402</v>
+        <v>2373.480080221347</v>
       </c>
       <c r="D30" t="n">
-        <v>729.3425943841845</v>
-      </c>
-      <c r="E30" t="n">
-        <v>917.465987875096</v>
+        <v>16786.7150219808</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9715.821940518514</v>
       </c>
       <c r="C31" t="n">
-        <v>874.0371458749712</v>
+        <v>2381.7549707680378</v>
       </c>
       <c r="D31" t="n">
-        <v>779.9712201083149</v>
-      </c>
-      <c r="E31" t="n">
-        <v>968.1030716416275</v>
+        <v>17049.88891026899</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9683.132670441235</v>
       </c>
       <c r="C32" t="n">
-        <v>882.948665541142</v>
+        <v>2223.7934730336715</v>
       </c>
       <c r="D32" t="n">
-        <v>788.8795115121794</v>
-      </c>
-      <c r="E32" t="n">
-        <v>977.0178195701045</v>
+        <v>17142.4718678488</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9803.845629259606</v>
       </c>
       <c r="C33" t="n">
-        <v>883.1092607342302</v>
+        <v>2221.3035616429056</v>
       </c>
       <c r="D33" t="n">
-        <v>789.037642358368</v>
-      </c>
-      <c r="E33" t="n">
-        <v>977.1808791100925</v>
+        <v>17386.387696876303</v>
       </c>
     </row>
   </sheetData>
